--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 GB.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>Course</t>
   </si>
@@ -154,6 +154,18 @@
     <t>4.17%</t>
   </si>
   <si>
+    <t>LASALA P</t>
+  </si>
+  <si>
+    <t>53.57%</t>
+  </si>
+  <si>
+    <t>17.86%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>LAYNE C</t>
   </si>
   <si>
@@ -163,6 +175,18 @@
     <t>36.84%</t>
   </si>
   <si>
+    <t>INTA-608</t>
+  </si>
+  <si>
+    <t>LENZ E</t>
+  </si>
+  <si>
+    <t>72.73%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
     <t>INTA-609</t>
   </si>
   <si>
@@ -379,6 +403,9 @@
     <t>38.46%</t>
   </si>
   <si>
+    <t>50.00%</t>
+  </si>
+  <si>
     <t>80.00%</t>
   </si>
   <si>
@@ -397,10 +424,7 @@
     <t>SNIDER E</t>
   </si>
   <si>
-    <t>64.71%</t>
-  </si>
-  <si>
-    <t>35.29%</t>
+    <t>58.33%</t>
   </si>
   <si>
     <t>LIU X</t>
@@ -412,7 +436,7 @@
     <t>30.77%</t>
   </si>
   <si>
-    <t>50.00%</t>
+    <t>ROBERTSON R</t>
   </si>
   <si>
     <t>71.43%</t>
@@ -457,13 +481,19 @@
     <t>PSAA-611</t>
   </si>
   <si>
+    <t>KERR D</t>
+  </si>
+  <si>
     <t>WEST W</t>
   </si>
   <si>
-    <t>38.89%</t>
-  </si>
-  <si>
-    <t>5.56%</t>
+    <t>58.54%</t>
+  </si>
+  <si>
+    <t>39.02%</t>
+  </si>
+  <si>
+    <t>2.44%</t>
   </si>
   <si>
     <t>PSAA-613</t>
@@ -508,6 +538,9 @@
     <t>PSAA-630</t>
   </si>
   <si>
+    <t>10.53%</t>
+  </si>
+  <si>
     <t>BRIGHT L</t>
   </si>
   <si>
@@ -517,9 +550,6 @@
     <t>6.25%</t>
   </si>
   <si>
-    <t>10.53%</t>
-  </si>
-  <si>
     <t>PSAA-632</t>
   </si>
   <si>
@@ -544,9 +574,6 @@
     <t>ZUNIGA K</t>
   </si>
   <si>
-    <t>58.33%</t>
-  </si>
-  <si>
     <t>PSAA-634</t>
   </si>
   <si>
@@ -625,9 +652,6 @@
     <t>MUMPOWER J</t>
   </si>
   <si>
-    <t>KERR D</t>
-  </si>
-  <si>
     <t>ROSSER A</t>
   </si>
   <si>
@@ -635,6 +659,18 @@
   </si>
   <si>
     <t>PSAA-689</t>
+  </si>
+  <si>
+    <t>54.55%</t>
+  </si>
+  <si>
+    <t>45.45%</t>
+  </si>
+  <si>
+    <t>PORTNEY K</t>
+  </si>
+  <si>
+    <t>53.85%</t>
   </si>
   <si>
     <t>SULLIVAN R</t>
@@ -974,7 +1010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,7 +1314,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="n">
-        <v>3.628</v>
+        <v>2.75</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
@@ -1287,301 +1323,301 @@
         <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.628</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" t="s">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.727</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.679</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.688</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C28" t="n">
-        <v>2.375</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.679</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3.688</v>
-      </c>
-      <c r="D37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="C44" t="n">
         <v>4</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D44" t="s">
         <v>18</v>
       </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="n">
         <v>3.857</v>
       </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="n">
         <v>3.579</v>
       </c>
-      <c r="D46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="D49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="D50" t="s">
         <v>79</v>
       </c>
+      <c r="E50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="B52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="A52" t="s">
         <v>81</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="D53" t="s">
         <v>83</v>
       </c>
-      <c r="C53" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>84</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>85</v>
       </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
       <c r="G53" t="s">
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C56" t="n">
-        <v>3.222</v>
+        <v>3.333</v>
       </c>
       <c r="D56" t="s">
         <v>88</v>
@@ -1596,180 +1632,180 @@
         <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D57" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="59" spans="1:8">
-      <c r="B59" t="s">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D69" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="B72" t="s">
         <v>91</v>
       </c>
-      <c r="C59" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D59" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D62" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="B65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" t="s">
-        <v>85</v>
-      </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" t="n">
+      <c r="C72" t="n">
         <v>3.95</v>
       </c>
-      <c r="D68" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="B71" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" t="n">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>102</v>
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="B74" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" t="n">
-        <v>4</v>
-      </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" t="s">
-        <v>12</v>
+      <c r="A74" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C75" t="n">
         <v>4</v>
@@ -1790,64 +1826,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" t="n">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="77" spans="1:8">
-      <c r="B77" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" t="n">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" t="s">
-        <v>12</v>
+      <c r="A77" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C78" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
@@ -1861,16 +1856,16 @@
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C79" t="n">
-        <v>3.889</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -1884,19 +1879,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C80" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
@@ -1907,7 +1902,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="B81" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C81" t="n">
         <v>4</v>
@@ -1930,16 +1925,16 @@
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C82" t="n">
-        <v>3.625</v>
+        <v>3.6</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
@@ -1953,16 +1948,16 @@
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="C83" t="n">
-        <v>3.4</v>
+        <v>3.889</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
@@ -1974,74 +1969,115 @@
         <v>12</v>
       </c>
     </row>
+    <row r="84" spans="1:8">
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D84" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>114</v>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C86" t="n">
-        <v>3.833</v>
+        <v>3.625</v>
       </c>
       <c r="D86" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D87" t="s">
         <v>115</v>
       </c>
-      <c r="E86" t="s">
-        <v>116</v>
-      </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>117</v>
+      <c r="E87" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="B89" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D89" t="s">
-        <v>80</v>
-      </c>
-      <c r="E89" t="s">
-        <v>89</v>
-      </c>
-      <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" t="s">
-        <v>12</v>
+      <c r="A89" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="B90" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C90" t="n">
-        <v>3.615</v>
+        <v>3.833</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E90" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
@@ -2053,64 +2089,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
-      <c r="B91" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4</v>
-      </c>
-      <c r="D91" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="92" spans="1:8">
-      <c r="B92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" t="n">
-        <v>3.8335</v>
-      </c>
-      <c r="D92" t="s">
-        <v>121</v>
-      </c>
-      <c r="E92" t="s">
-        <v>122</v>
-      </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="s">
-        <v>12</v>
+      <c r="A92" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="B93" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="C93" t="n">
-        <v>3.818</v>
+        <v>3.667</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="E93" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
@@ -2127,7 +2122,7 @@
         <v>126</v>
       </c>
       <c r="C94" t="n">
-        <v>3.647</v>
+        <v>3.615</v>
       </c>
       <c r="D94" t="s">
         <v>127</v>
@@ -2147,16 +2142,16 @@
     </row>
     <row r="95" spans="1:8">
       <c r="B95" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C95" t="n">
-        <v>3.692</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
@@ -2170,16 +2165,16 @@
     </row>
     <row r="96" spans="1:8">
       <c r="B96" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C96" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
@@ -2193,16 +2188,16 @@
     </row>
     <row r="97" spans="1:8">
       <c r="B97" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C97" t="n">
-        <v>3.5</v>
+        <v>3.8335</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
@@ -2216,10 +2211,10 @@
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C98" t="n">
-        <v>3.643</v>
+        <v>3.818</v>
       </c>
       <c r="D98" t="s">
         <v>133</v>
@@ -2228,226 +2223,308 @@
         <v>134</v>
       </c>
       <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="B99" t="s">
         <v>135</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="C99" t="n">
+        <v>3.4665</v>
+      </c>
+      <c r="D99" t="s">
+        <v>136</v>
+      </c>
+      <c r="E99" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" t="s">
+        <v>45</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>136</v>
+      <c r="B100" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="D100" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="C101" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="D103" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103" t="s">
+        <v>142</v>
+      </c>
+      <c r="F103" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" t="n">
         <v>4</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D106" t="s">
         <v>18</v>
       </c>
-      <c r="E101" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" t="s">
-        <v>139</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" t="s">
+        <v>147</v>
+      </c>
+      <c r="C109" t="n">
         <v>3.25</v>
       </c>
-      <c r="D104" t="s">
-        <v>112</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D109" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" t="s">
         <v>34</v>
       </c>
-      <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="B107" t="s">
-        <v>141</v>
-      </c>
-      <c r="C107" t="n">
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112" t="n">
         <v>2.5</v>
       </c>
-      <c r="D107" t="s">
-        <v>132</v>
-      </c>
-      <c r="E107" t="s">
-        <v>116</v>
-      </c>
-      <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="B108" t="s">
-        <v>142</v>
-      </c>
-      <c r="C108" t="n">
+      <c r="D112" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="B113" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" t="n">
         <v>3.958</v>
       </c>
-      <c r="D108" t="s">
-        <v>143</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D113" t="s">
+        <v>151</v>
+      </c>
+      <c r="E113" t="s">
         <v>45</v>
       </c>
-      <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="B111" t="s">
-        <v>145</v>
-      </c>
-      <c r="C111" t="n">
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" t="n">
         <v>4</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D116" t="s">
         <v>18</v>
       </c>
-      <c r="E111" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="B114" t="s">
-        <v>147</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D114" t="s">
-        <v>88</v>
-      </c>
-      <c r="E114" t="s">
-        <v>148</v>
-      </c>
-      <c r="F114" t="s">
-        <v>149</v>
-      </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="B117" t="s">
-        <v>23</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4</v>
-      </c>
-      <c r="D117" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" t="s">
-        <v>12</v>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>151</v>
+      <c r="B119" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="D119" t="s">
+        <v>123</v>
+      </c>
+      <c r="E119" t="s">
+        <v>124</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="B120" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C120" t="n">
-        <v>3.79</v>
+        <v>3.5545</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E120" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G120" t="s">
         <v>12</v>
@@ -2458,21 +2535,21 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="B123" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="C123" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="E123" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
         <v>12</v>
@@ -2486,272 +2563,272 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="B126" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C126" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E126" t="s">
+        <v>164</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="B129" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D129" t="s">
+        <v>167</v>
+      </c>
+      <c r="E129" t="s">
+        <v>168</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" t="n">
         <v>3.36</v>
       </c>
-      <c r="D126" t="s">
-        <v>107</v>
-      </c>
-      <c r="E126" t="s">
-        <v>160</v>
-      </c>
-      <c r="F126" t="s">
-        <v>77</v>
-      </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="B127" t="s">
-        <v>161</v>
-      </c>
-      <c r="C127" t="n">
+      <c r="D132" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" t="s">
+        <v>170</v>
+      </c>
+      <c r="F132" t="s">
+        <v>85</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="B133" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133" t="n">
         <v>3.778</v>
       </c>
-      <c r="D127" t="s">
-        <v>162</v>
-      </c>
-      <c r="E127" t="s">
-        <v>81</v>
-      </c>
-      <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
+      <c r="D133" t="s">
+        <v>172</v>
+      </c>
+      <c r="E133" t="s">
+        <v>89</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="B136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.684</v>
+      </c>
+      <c r="D136" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="B130" t="s">
-        <v>164</v>
-      </c>
-      <c r="C130" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="D130" t="s">
-        <v>62</v>
-      </c>
-      <c r="E130" t="s">
-        <v>165</v>
-      </c>
-      <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>166</v>
-      </c>
-      <c r="H130" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="B131" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" t="n">
-        <v>3.684</v>
-      </c>
-      <c r="D131" t="s">
-        <v>153</v>
-      </c>
-      <c r="E131" t="s">
-        <v>167</v>
-      </c>
-      <c r="F131" t="s">
-        <v>167</v>
-      </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="B134" t="s">
-        <v>169</v>
-      </c>
-      <c r="C134" t="n">
-        <v>3.077</v>
-      </c>
-      <c r="D134" t="s">
-        <v>130</v>
-      </c>
-      <c r="E134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" t="s">
-        <v>170</v>
-      </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" t="s">
-        <v>171</v>
+      <c r="E136" t="s">
+        <v>174</v>
+      </c>
+      <c r="F136" t="s">
+        <v>174</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="D137" t="s">
+        <v>70</v>
+      </c>
+      <c r="E137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>177</v>
+      </c>
+      <c r="H137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="B140" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="D140" t="s">
+        <v>138</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s">
+        <v>180</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="B143" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D143" t="s">
+        <v>183</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>184</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="B144" t="s">
+        <v>185</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D144" t="s">
+        <v>136</v>
+      </c>
+      <c r="E144" t="s">
+        <v>124</v>
+      </c>
+      <c r="F144" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="B147" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D147" t="s">
         <v>172</v>
       </c>
-      <c r="C137" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D137" t="s">
-        <v>173</v>
-      </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" t="s">
-        <v>174</v>
-      </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="B138" t="s">
-        <v>175</v>
-      </c>
-      <c r="C138" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D138" t="s">
-        <v>176</v>
-      </c>
-      <c r="E138" t="s">
-        <v>116</v>
-      </c>
-      <c r="F138" t="s">
-        <v>34</v>
-      </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
-      <c r="H138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="B141" t="s">
-        <v>164</v>
-      </c>
-      <c r="C141" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D141" t="s">
-        <v>162</v>
-      </c>
-      <c r="E141" t="s">
-        <v>81</v>
-      </c>
-      <c r="F141" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="B142" t="s">
-        <v>17</v>
-      </c>
-      <c r="C142" t="n">
-        <v>4</v>
-      </c>
-      <c r="D142" t="s">
-        <v>18</v>
-      </c>
-      <c r="E142" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="B145" t="s">
-        <v>179</v>
-      </c>
-      <c r="C145" t="n">
-        <v>4</v>
-      </c>
-      <c r="D145" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>180</v>
+      <c r="E147" t="s">
+        <v>89</v>
+      </c>
+      <c r="F147" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="B148" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="C148" t="n">
         <v>4</v>
@@ -2774,24 +2851,24 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="B151" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C151" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="E151" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G151" t="s">
         <v>12</v>
@@ -2802,21 +2879,21 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="B154" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C154" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
         <v>12</v>
@@ -2830,179 +2907,179 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="B157" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D157" t="s">
+        <v>193</v>
+      </c>
+      <c r="E157" t="s">
+        <v>66</v>
+      </c>
+      <c r="F157" t="s">
+        <v>108</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="B160" t="s">
+        <v>195</v>
+      </c>
+      <c r="C160" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D160" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" t="s">
+        <v>34</v>
+      </c>
+      <c r="F160" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="B163" t="s">
+        <v>182</v>
+      </c>
+      <c r="C163" t="n">
         <v>3.4</v>
       </c>
-      <c r="D157" t="s">
-        <v>106</v>
-      </c>
-      <c r="E157" t="s">
-        <v>122</v>
-      </c>
-      <c r="F157" t="s">
-        <v>122</v>
-      </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
-      <c r="H157" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="B158" t="s">
-        <v>181</v>
-      </c>
-      <c r="C158" t="n">
+      <c r="D163" t="s">
+        <v>114</v>
+      </c>
+      <c r="E163" t="s">
+        <v>131</v>
+      </c>
+      <c r="F163" t="s">
+        <v>131</v>
+      </c>
+      <c r="G163" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="B164" t="s">
+        <v>190</v>
+      </c>
+      <c r="C164" t="n">
         <v>3.7395</v>
       </c>
-      <c r="D158" t="s">
-        <v>188</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="D164" t="s">
+        <v>197</v>
+      </c>
+      <c r="E164" t="s">
         <v>41</v>
       </c>
-      <c r="F158" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
-      <c r="H158" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="B161" t="s">
-        <v>191</v>
-      </c>
-      <c r="C161" t="n">
+      <c r="F164" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="B167" t="s">
+        <v>200</v>
+      </c>
+      <c r="C167" t="n">
         <v>2.923</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D167" t="s">
         <v>40</v>
       </c>
-      <c r="E161" t="s">
-        <v>131</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="E167" t="s">
+        <v>139</v>
+      </c>
+      <c r="F167" t="s">
         <v>41</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
-      <c r="H161" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="B162" t="s">
-        <v>169</v>
-      </c>
-      <c r="C162" t="n">
-        <v>3.6155</v>
-      </c>
-      <c r="D162" t="s">
-        <v>192</v>
-      </c>
-      <c r="E162" t="s">
-        <v>193</v>
-      </c>
-      <c r="F162" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
-      <c r="H162" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="B165" t="s">
-        <v>195</v>
-      </c>
-      <c r="C165" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D165" t="s">
-        <v>67</v>
-      </c>
-      <c r="E165" t="s">
-        <v>68</v>
-      </c>
-      <c r="F165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
-      <c r="H165" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
-        <v>196</v>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="B168" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C168" t="n">
-        <v>3.75</v>
+        <v>3.6155</v>
       </c>
       <c r="D168" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="E168" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F168" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="G168" t="s">
         <v>12</v>
       </c>
       <c r="H168" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="B171" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C171" t="n">
-        <v>3.571</v>
+        <v>3.857</v>
       </c>
       <c r="D171" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E171" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F171" t="s">
         <v>12</v>
@@ -3016,24 +3093,24 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="B174" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="C174" t="n">
-        <v>3.875</v>
+        <v>3.75</v>
       </c>
       <c r="D174" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="G174" t="s">
         <v>12</v>
@@ -3044,21 +3121,21 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="B177" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="C177" t="n">
-        <v>3.8</v>
+        <v>3.571</v>
       </c>
       <c r="D177" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E177" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F177" t="s">
         <v>12</v>
@@ -3070,64 +3147,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
-      <c r="B178" t="s">
-        <v>142</v>
-      </c>
-      <c r="C178" t="n">
-        <v>4</v>
-      </c>
-      <c r="D178" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
-      <c r="H178" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="179" spans="1:8">
-      <c r="B179" t="s">
-        <v>186</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4</v>
-      </c>
-      <c r="D179" t="s">
-        <v>18</v>
-      </c>
-      <c r="E179" t="s">
-        <v>12</v>
-      </c>
-      <c r="F179" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
-      <c r="H179" t="s">
-        <v>12</v>
+      <c r="A179" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="B180" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="C180" t="n">
-        <v>4</v>
+        <v>3.875</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F180" t="s">
         <v>12</v>
@@ -3139,64 +3175,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
-      <c r="B181" t="s">
-        <v>203</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4</v>
-      </c>
-      <c r="D181" t="s">
-        <v>18</v>
-      </c>
-      <c r="E181" t="s">
-        <v>12</v>
-      </c>
-      <c r="F181" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
-      <c r="H181" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="182" spans="1:8">
-      <c r="B182" t="s">
-        <v>204</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4</v>
-      </c>
-      <c r="D182" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182" t="s">
-        <v>12</v>
-      </c>
-      <c r="F182" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
-      <c r="H182" t="s">
-        <v>12</v>
+      <c r="A182" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="B183" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C183" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D183" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="E183" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="F183" t="s">
         <v>12</v>
@@ -3210,7 +3205,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="B184" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C184" t="n">
         <v>4</v>
@@ -3233,16 +3228,16 @@
     </row>
     <row r="185" spans="1:8">
       <c r="B185" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C185" t="n">
-        <v>3.778</v>
+        <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="E185" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
         <v>12</v>
@@ -3254,14 +3249,55 @@
         <v>12</v>
       </c>
     </row>
+    <row r="186" spans="1:8">
+      <c r="B186" t="s">
+        <v>155</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4</v>
+      </c>
+      <c r="D186" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="187" spans="1:8">
-      <c r="A187" t="s">
-        <v>206</v>
+      <c r="B187" t="s">
+        <v>150</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4</v>
+      </c>
+      <c r="D187" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C188" t="n">
         <v>4</v>
@@ -3279,6 +3315,149 @@
         <v>12</v>
       </c>
       <c r="H188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="B189" t="s">
+        <v>200</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4</v>
+      </c>
+      <c r="D189" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>12</v>
+      </c>
+      <c r="H189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="B190" t="s">
+        <v>213</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4</v>
+      </c>
+      <c r="D190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="B191" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D191" t="s">
+        <v>172</v>
+      </c>
+      <c r="E191" t="s">
+        <v>89</v>
+      </c>
+      <c r="F191" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>12</v>
+      </c>
+      <c r="H191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="B194" t="s">
+        <v>213</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="D194" t="s">
+        <v>215</v>
+      </c>
+      <c r="E194" t="s">
+        <v>216</v>
+      </c>
+      <c r="F194" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="B195" t="s">
+        <v>217</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="D195" t="s">
+        <v>40</v>
+      </c>
+      <c r="E195" t="s">
+        <v>218</v>
+      </c>
+      <c r="F195" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>12</v>
+      </c>
+      <c r="H195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="B196" t="s">
+        <v>219</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4</v>
+      </c>
+      <c r="D196" t="s">
+        <v>18</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" t="s">
         <v>12</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 GB.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 GB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BUSH-631</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
     <t>4.17%</t>
   </si>
   <si>
+    <t>4.00%</t>
+  </si>
+  <si>
     <t>LASALA P</t>
   </si>
   <si>
@@ -187,6 +193,9 @@
     <t>27.27%</t>
   </si>
   <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>INTA-609</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
     <t>31.25%</t>
   </si>
   <si>
+    <t>5.88%</t>
+  </si>
+  <si>
     <t>INTA-623</t>
   </si>
   <si>
@@ -271,12 +283,12 @@
     <t>16.00%</t>
   </si>
   <si>
-    <t>4.00%</t>
-  </si>
-  <si>
     <t>12.00%</t>
   </si>
   <si>
+    <t>10.71%</t>
+  </si>
+  <si>
     <t>INTA-652</t>
   </si>
   <si>
@@ -566,9 +578,6 @@
   </si>
   <si>
     <t>91.67%</t>
-  </si>
-  <si>
-    <t>8.33%</t>
   </si>
   <si>
     <t>ZUNIGA K</t>
@@ -711,12 +720,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1010,15 +1018,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1043,2422 +1051,2707 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.859</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>3.87</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
         <v>3.952</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>3.609</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>3.429</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
         <v>3.75</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
         <v>3.375</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
         <v>3.231</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="n">
         <v>3.583</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" t="n">
         <v>2.75</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" t="n">
         <v>3.628</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29" t="n">
         <v>3.727</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C32" t="n">
         <v>2.375</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C35" t="n">
         <v>3.679</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C38" t="n">
         <v>3.65</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C41" t="n">
         <v>3.688</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C44" t="n">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C47" t="n">
         <v>3.857</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C50" t="n">
         <v>3.579</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C53" t="n">
         <v>3.28</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
+        <v>89</v>
+      </c>
+      <c r="I53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" t="s">
-        <v>82</v>
       </c>
       <c r="C56" t="n">
         <v>3.333</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C57" t="n">
         <v>3.571</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C60" t="n">
         <v>3.222</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C63" t="n">
         <v>3.9</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C66" t="n">
         <v>3.9</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C69" t="n">
         <v>3.571</v>
       </c>
       <c r="D69" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C72" t="n">
         <v>3.95</v>
       </c>
       <c r="D72" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="B75" t="s">
         <v>107</v>
-      </c>
-      <c r="E72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="B75" t="s">
-        <v>103</v>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C82" t="n">
         <v>3.6</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E82" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C83" t="n">
         <v>3.889</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C84" t="n">
         <v>3.75</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C86" t="n">
         <v>3.625</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C87" t="n">
         <v>3.4</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E87" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C90" t="n">
         <v>3.833</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E90" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C93" t="n">
         <v>3.667</v>
       </c>
       <c r="D93" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C94" t="n">
         <v>3.615</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E94" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C96" t="n">
         <v>3.5</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E96" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C97" t="n">
         <v>3.8335</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E97" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C98" t="n">
         <v>3.818</v>
       </c>
       <c r="D98" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E98" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C99" t="n">
         <v>3.4665</v>
       </c>
       <c r="D99" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E99" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C100" t="n">
         <v>3.692</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E100" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C101" t="n">
         <v>3.75</v>
       </c>
       <c r="D101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C102" t="n">
         <v>3.75</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C103" t="n">
         <v>3.643</v>
       </c>
       <c r="D103" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E103" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F103" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C106" t="n">
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C109" t="n">
         <v>3.25</v>
       </c>
       <c r="D109" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I109" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C112" t="n">
         <v>2.5</v>
       </c>
       <c r="D112" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E112" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H112" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C113" t="n">
         <v>3.958</v>
       </c>
       <c r="D113" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C119" t="n">
         <v>3.825</v>
       </c>
       <c r="D119" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C120" t="n">
         <v>3.5545</v>
       </c>
       <c r="D120" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E120" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F120" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C126" t="n">
         <v>3.79</v>
       </c>
       <c r="D126" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E126" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C129" t="n">
         <v>3.85</v>
       </c>
       <c r="D129" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E129" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C132" t="n">
         <v>3.36</v>
       </c>
       <c r="D132" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E132" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F132" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="B133" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C133" t="n">
         <v>3.778</v>
       </c>
       <c r="D133" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E133" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C136" t="n">
         <v>3.684</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E136" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F136" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H136" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C137" t="n">
         <v>3.375</v>
       </c>
       <c r="D137" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E137" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H137" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C140" t="n">
         <v>3.077</v>
       </c>
       <c r="D140" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F140" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C143" t="n">
         <v>3.833</v>
       </c>
       <c r="D143" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C144" t="n">
         <v>3.333</v>
       </c>
       <c r="D144" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E144" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C147" t="n">
         <v>3.778</v>
       </c>
       <c r="D147" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E147" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C148" t="n">
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H148" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H151" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I151" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H154" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C157" t="n">
         <v>3.25</v>
       </c>
       <c r="D157" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E157" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F157" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C160" t="n">
         <v>3.75</v>
       </c>
       <c r="D160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H160" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C163" t="n">
         <v>3.4</v>
       </c>
       <c r="D163" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E163" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F163" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H163" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C164" t="n">
         <v>3.7395</v>
       </c>
       <c r="D164" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H164" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C167" t="n">
         <v>2.923</v>
       </c>
       <c r="D167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E167" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H167" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C168" t="n">
         <v>3.6155</v>
       </c>
       <c r="D168" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E168" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H168" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C171" t="n">
         <v>3.857</v>
       </c>
       <c r="D171" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E171" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H171" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="B174" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C174" t="n">
         <v>3.75</v>
       </c>
       <c r="D174" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E174" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F174" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="G174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I174" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C177" t="n">
         <v>3.571</v>
       </c>
       <c r="D177" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E177" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C180" t="n">
         <v>3.875</v>
       </c>
       <c r="D180" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E180" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H180" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="B183" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C183" t="n">
         <v>3.8</v>
       </c>
       <c r="D183" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E183" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H183" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C184" t="n">
         <v>4</v>
       </c>
       <c r="D184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H184" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C185" t="n">
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H185" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C186" t="n">
         <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H186" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C187" t="n">
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H187" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C188" t="n">
         <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H188" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="B189" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C189" t="n">
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H189" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C190" t="n">
         <v>4</v>
       </c>
       <c r="D190" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H190" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C191" t="n">
         <v>3.778</v>
       </c>
       <c r="D191" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E191" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H191" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C194" t="n">
         <v>3.546</v>
       </c>
       <c r="D194" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E194" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H194" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C195" t="n">
         <v>3.462</v>
       </c>
       <c r="D195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E195" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H195" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="B196" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C196" t="n">
         <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H196" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I196" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 GB.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>Course</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>6.25%</t>
+  </si>
+  <si>
+    <t>PSAA-631</t>
+  </si>
+  <si>
+    <t>TACKETT-GIBSON M</t>
   </si>
   <si>
     <t>PSAA-632</t>
@@ -1010,7 +1016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2729,134 +2735,134 @@
         <v>179</v>
       </c>
       <c r="C140" t="n">
-        <v>3.077</v>
+        <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="E140" t="s">
         <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="D143" t="s">
+        <v>138</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
         <v>182</v>
       </c>
-      <c r="C143" t="n">
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="B146" t="s">
+        <v>184</v>
+      </c>
+      <c r="C146" t="n">
         <v>3.833</v>
       </c>
-      <c r="D143" t="s">
-        <v>183</v>
-      </c>
-      <c r="E143" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" t="s">
-        <v>184</v>
-      </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="B144" t="s">
+      <c r="D146" t="s">
         <v>185</v>
       </c>
-      <c r="C144" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D144" t="s">
-        <v>136</v>
-      </c>
-      <c r="E144" t="s">
-        <v>124</v>
-      </c>
-      <c r="F144" t="s">
-        <v>34</v>
-      </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
-      <c r="H144" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
+      <c r="E146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" t="s">
         <v>186</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="B147" t="s">
+        <v>187</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D147" t="s">
+        <v>136</v>
+      </c>
+      <c r="E147" t="s">
+        <v>124</v>
+      </c>
+      <c r="F147" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="B150" t="s">
         <v>175</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C150" t="n">
         <v>3.778</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D150" t="s">
         <v>172</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E150" t="s">
         <v>89</v>
       </c>
-      <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="B148" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" t="n">
-        <v>4</v>
-      </c>
-      <c r="D148" t="s">
-        <v>18</v>
-      </c>
-      <c r="E148" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
-        <v>187</v>
+      <c r="F150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="B151" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="C151" t="n">
         <v>4</v>
@@ -2915,16 +2921,16 @@
         <v>192</v>
       </c>
       <c r="C157" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="E157" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="G157" t="s">
         <v>12</v>
@@ -2935,24 +2941,24 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="B160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D160" t="s">
         <v>195</v>
       </c>
-      <c r="C160" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D160" t="s">
-        <v>33</v>
-      </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="G160" t="s">
         <v>12</v>
@@ -2968,119 +2974,119 @@
     </row>
     <row r="163" spans="1:8">
       <c r="B163" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C163" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D163" t="s">
+        <v>33</v>
+      </c>
+      <c r="E163" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="B166" t="s">
+        <v>184</v>
+      </c>
+      <c r="C166" t="n">
         <v>3.4</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D166" t="s">
         <v>114</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E166" t="s">
         <v>131</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F166" t="s">
         <v>131</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
-      <c r="H163" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="B164" t="s">
-        <v>190</v>
-      </c>
-      <c r="C164" t="n">
-        <v>3.7395</v>
-      </c>
-      <c r="D164" t="s">
-        <v>197</v>
-      </c>
-      <c r="E164" t="s">
-        <v>41</v>
-      </c>
-      <c r="F164" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
-      <c r="H164" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
-        <v>199</v>
+      <c r="G166" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
+        <v>192</v>
+      </c>
+      <c r="C167" t="n">
+        <v>3.7395</v>
+      </c>
+      <c r="D167" t="s">
+        <v>199</v>
+      </c>
+      <c r="E167" t="s">
+        <v>41</v>
+      </c>
+      <c r="F167" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="s">
         <v>200</v>
       </c>
-      <c r="C167" t="n">
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>202</v>
+      </c>
+      <c r="C170" t="n">
         <v>2.923</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D170" t="s">
         <v>40</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E170" t="s">
         <v>139</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F170" t="s">
         <v>41</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
-      <c r="H167" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="B168" t="s">
-        <v>179</v>
-      </c>
-      <c r="C168" t="n">
-        <v>3.6155</v>
-      </c>
-      <c r="D168" t="s">
-        <v>201</v>
-      </c>
-      <c r="E168" t="s">
-        <v>202</v>
-      </c>
-      <c r="F168" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
-      <c r="H168" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>203</v>
+      <c r="G170" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="B171" t="s">
+        <v>181</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3.6155</v>
+      </c>
+      <c r="D171" t="s">
+        <v>203</v>
+      </c>
+      <c r="E171" t="s">
         <v>204</v>
       </c>
-      <c r="C171" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D171" t="s">
-        <v>75</v>
-      </c>
-      <c r="E171" t="s">
-        <v>76</v>
-      </c>
       <c r="F171" t="s">
         <v>12</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="H171" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -3101,16 +3107,16 @@
         <v>206</v>
       </c>
       <c r="C174" t="n">
-        <v>3.75</v>
+        <v>3.857</v>
       </c>
       <c r="D174" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="E174" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="F174" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="G174" t="s">
         <v>12</v>
@@ -3129,16 +3135,16 @@
         <v>208</v>
       </c>
       <c r="C177" t="n">
-        <v>3.571</v>
+        <v>3.75</v>
       </c>
       <c r="D177" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E177" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="G177" t="s">
         <v>12</v>
@@ -3154,16 +3160,16 @@
     </row>
     <row r="180" spans="1:8">
       <c r="B180" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C180" t="n">
-        <v>3.875</v>
+        <v>3.571</v>
       </c>
       <c r="D180" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E180" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="F180" t="s">
         <v>12</v>
@@ -3177,21 +3183,21 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="B183" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C183" t="n">
-        <v>3.8</v>
+        <v>3.875</v>
       </c>
       <c r="D183" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E183" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="F183" t="s">
         <v>12</v>
@@ -3203,64 +3209,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
-      <c r="B184" t="s">
-        <v>195</v>
-      </c>
-      <c r="C184" t="n">
-        <v>4</v>
-      </c>
-      <c r="D184" t="s">
-        <v>18</v>
-      </c>
-      <c r="E184" t="s">
-        <v>12</v>
-      </c>
-      <c r="F184" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
-      <c r="H184" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="185" spans="1:8">
-      <c r="B185" t="s">
-        <v>211</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4</v>
-      </c>
-      <c r="D185" t="s">
-        <v>18</v>
-      </c>
-      <c r="E185" t="s">
-        <v>12</v>
-      </c>
-      <c r="F185" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
-      <c r="H185" t="s">
-        <v>12</v>
+      <c r="A185" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="B186" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C186" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="E186" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="F186" t="s">
         <v>12</v>
@@ -3274,7 +3239,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="B187" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="C187" t="n">
         <v>4</v>
@@ -3297,7 +3262,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C188" t="n">
         <v>4</v>
@@ -3320,7 +3285,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="B189" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C189" t="n">
         <v>4</v>
@@ -3343,7 +3308,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="B190" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="C190" t="n">
         <v>4</v>
@@ -3366,16 +3331,16 @@
     </row>
     <row r="191" spans="1:8">
       <c r="B191" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="C191" t="n">
-        <v>3.778</v>
+        <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="E191" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
         <v>12</v>
@@ -3387,77 +3352,146 @@
         <v>12</v>
       </c>
     </row>
+    <row r="192" spans="1:8">
+      <c r="B192" t="s">
+        <v>202</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>12</v>
+      </c>
+      <c r="H192" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="193" spans="1:8">
-      <c r="A193" t="s">
-        <v>214</v>
+      <c r="B193" t="s">
+        <v>215</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="B194" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C194" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D194" t="s">
+        <v>172</v>
+      </c>
+      <c r="E194" t="s">
+        <v>89</v>
+      </c>
+      <c r="F194" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="B197" t="s">
+        <v>215</v>
+      </c>
+      <c r="C197" t="n">
         <v>3.546</v>
       </c>
-      <c r="D194" t="s">
-        <v>215</v>
-      </c>
-      <c r="E194" t="s">
-        <v>216</v>
-      </c>
-      <c r="F194" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
-      <c r="H194" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="B195" t="s">
+      <c r="D197" t="s">
         <v>217</v>
       </c>
-      <c r="C195" t="n">
+      <c r="E197" t="s">
+        <v>218</v>
+      </c>
+      <c r="F197" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="B198" t="s">
+        <v>219</v>
+      </c>
+      <c r="C198" t="n">
         <v>3.462</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D198" t="s">
         <v>40</v>
       </c>
-      <c r="E195" t="s">
-        <v>218</v>
-      </c>
-      <c r="F195" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
-      <c r="H195" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="B196" t="s">
-        <v>219</v>
-      </c>
-      <c r="C196" t="n">
+      <c r="E198" t="s">
+        <v>220</v>
+      </c>
+      <c r="F198" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="B199" t="s">
+        <v>221</v>
+      </c>
+      <c r="C199" t="n">
         <v>4</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D199" t="s">
         <v>18</v>
       </c>
-      <c r="E196" t="s">
-        <v>12</v>
-      </c>
-      <c r="F196" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
-      <c r="H196" t="s">
+      <c r="E199" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" t="s">
         <v>12</v>
       </c>
     </row>
